--- a/biology/Botanique/Pseudoscleropodium_purum/Pseudoscleropodium_purum.xlsx
+++ b/biology/Botanique/Pseudoscleropodium_purum/Pseudoscleropodium_purum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudoscleropodium purum, appelée aussi Mousse des jardiniers, est une espèce de bryophytes (mousses) de l’ordre des Hypnales.
 </t>
@@ -511,9 +523,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Pseudoscleropodium vient du grec pseudēs, trompé pouspied, et sklêros rude, allusion à la soie (pied portant la capsule) rugueuse au toucher, Pseudo faisant référence à la classification classique qui faisait du genre Pseudoscleropodium un genre proche de Scleropodium. L'épithète spécifique purum signifie pur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Pseudoscleropodium vient du grec pseudēs, trompé pouspied, et sklêros rude, allusion à la soie (pied portant la capsule) rugueuse au toucher, Pseudo faisant référence à la classification classique qui faisait du genre Pseudoscleropodium un genre proche de Scleropodium. L'épithète spécifique purum signifie pur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace rampante, elle porte des rameaux arrondis, en disposition pennée. Les feuilles très recouvrantes sont appliquées contre la tige, concaves, apiculées et à nervure unique assez courte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace rampante, elle porte des rameaux arrondis, en disposition pennée. Les feuilles très recouvrantes sont appliquées contre la tige, concaves, apiculées et à nervure unique assez courte.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 juin 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Pseudoscleropodium purum var. acuminatum Latzel
 forme Pseudoscleropodium purum fo. adpressum (Jaap) C.E.O. Jensen
 forme Pseudoscleropodium purum fo. angustifolium Papp
